--- a/data/trans_dic/P44D-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Estudios-trans_dic.xlsx
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01090203708745361</v>
+        <v>0.01272533658192264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03217998106135391</v>
+        <v>0.03331625459024779</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002306870882583341</v>
+        <v>0.002322153088151773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02636084234405555</v>
+        <v>0.02543263564715166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009736615246765987</v>
+        <v>0.009423692263337556</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1038869531263285</v>
+        <v>0.09939160945976175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1276390774670605</v>
+        <v>0.1049976406883127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06266551334972187</v>
+        <v>0.06202936553680757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1982975158920221</v>
+        <v>0.2081072703954758</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09105258923031112</v>
+        <v>0.103554751713039</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02474156166295914</v>
+        <v>0.02589590261310263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1340793483959544</v>
+        <v>0.1234653036531364</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0736677307942875</v>
+        <v>0.06430331390789762</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03275500356753167</v>
+        <v>0.03446790406135734</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06766657101468963</v>
+        <v>0.0665978394534137</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06985009910039233</v>
+        <v>0.06957079923861095</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05829690834814852</v>
+        <v>0.0556457406634937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1028162511598387</v>
+        <v>0.1009823091970447</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03120230777579401</v>
+        <v>0.0309364566617714</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04689863417470028</v>
+        <v>0.04693470623266337</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1010293198175383</v>
+        <v>0.1092020310860834</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07571400332146022</v>
+        <v>0.06772827479274718</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05880729457423425</v>
+        <v>0.05580770615578859</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3405953929773433</v>
+        <v>0.3498002715682926</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2306320812475304</v>
+        <v>0.2273850810232992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1184116536322601</v>
+        <v>0.1168454342095603</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4880840772733999</v>
+        <v>0.4904516328793008</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2490143044136408</v>
+        <v>0.2498300273819985</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09513266887226221</v>
+        <v>0.0961643879105282</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3266680372607394</v>
+        <v>0.3278583110818014</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2047763396129901</v>
+        <v>0.2067972216880252</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.099819469421915</v>
+        <v>0.09656871982106184</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09938743514666547</v>
+        <v>0.1214119828232934</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2102995435715849</v>
+        <v>0.215156713257858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.148352951978616</v>
+        <v>0.153421335627635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.178054784830096</v>
+        <v>0.1840530527259936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1400111620681556</v>
+        <v>0.1781062571469617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1468091267004278</v>
+        <v>0.1506528462515219</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2142672800573017</v>
+        <v>0.19890849421358</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2469654523553926</v>
+        <v>0.2572647236044785</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1628676092084851</v>
+        <v>0.163759285523013</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6351212390814736</v>
+        <v>0.6497001688229938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.591918691183218</v>
+        <v>0.5986993522502934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2831751901152055</v>
+        <v>0.2842735649473795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7565476675514059</v>
+        <v>0.7552268098009548</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6675669914489213</v>
+        <v>0.6907838775124521</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2734447264849229</v>
+        <v>0.2766992417286545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6120086226831726</v>
+        <v>0.5948026565959508</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5663013891461183</v>
+        <v>0.5539978594222282</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2554654240073455</v>
+        <v>0.2567571343363505</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.1022382754308385</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1549557182023102</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09530772971890139</v>
+        <v>0.09880945176744306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07773304711893513</v>
+        <v>0.07653211104443329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1139440531055344</v>
+        <v>0.1094011047798045</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05186960881877589</v>
+        <v>0.05043523162411096</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.100385451102719</v>
+        <v>0.1068244659102073</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08931613999490702</v>
+        <v>0.09005275681075454</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07202146540808171</v>
+        <v>0.07245334802297343</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2127380704690135</v>
+        <v>0.217331088355592</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1247692070027044</v>
+        <v>0.125751202856154</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2769529101906785</v>
+        <v>0.2626400140658866</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1760502279867747</v>
+        <v>0.1777291864369024</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2159158485382386</v>
+        <v>0.2213916250381973</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1749744720205847</v>
+        <v>0.1779844635655774</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1020084714352389</v>
+        <v>0.1014658655881694</v>
       </c>
     </row>
     <row r="16">
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1646</v>
+        <v>1922</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2091</v>
+        <v>2165</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2989</v>
+        <v>2884</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3301</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5031</v>
+        <v>4813</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6743</v>
+        <v>5547</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9463</v>
+        <v>9367</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12884</v>
+        <v>13521</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5397</v>
+        <v>6138</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4653</v>
+        <v>4870</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15204</v>
+        <v>14001</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8258</v>
+        <v>7208</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11106</v>
+        <v>11687</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3295</v>
+        <v>3243</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5228</v>
+        <v>5207</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16954</v>
+        <v>16183</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3130</v>
+        <v>3074</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11481</v>
+        <v>11490</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7995</v>
+        <v>8642</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8086</v>
+        <v>7234</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31500</v>
+        <v>29893</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16586</v>
+        <v>17034</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17261</v>
+        <v>17018</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34437</v>
+        <v>33982</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14858</v>
+        <v>14930</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7958</v>
+        <v>7984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23290</v>
+        <v>23542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25852</v>
+        <v>25946</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21871</v>
+        <v>22087</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53467</v>
+        <v>51726</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1549</v>
+        <v>1892</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6087</v>
+        <v>6227</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19301</v>
+        <v>19961</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2224</v>
+        <v>2299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2260</v>
+        <v>2875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14258</v>
+        <v>14631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6016</v>
+        <v>5584</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11135</v>
+        <v>11599</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37007</v>
+        <v>37210</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9899</v>
+        <v>10126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17132</v>
+        <v>17328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36842</v>
+        <v>36985</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9449</v>
+        <v>9432</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10777</v>
+        <v>11151</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26557</v>
+        <v>26873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17182</v>
+        <v>16699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25533</v>
+        <v>24978</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>58048</v>
+        <v>58341</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14926</v>
+        <v>15475</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44458</v>
+        <v>43771</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12295</v>
+        <v>11805</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5570</v>
+        <v>5416</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22146</v>
+        <v>23567</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23579</v>
+        <v>23773</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79363</v>
+        <v>79839</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33317</v>
+        <v>34037</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71360</v>
+        <v>71922</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29884</v>
+        <v>28340</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18904</v>
+        <v>19084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47633</v>
+        <v>48841</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>46192</v>
+        <v>46986</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>112407</v>
+        <v>111809</v>
       </c>
     </row>
     <row r="20">
